--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tgfa</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Tgfa</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.5005475</v>
+        <v>0.4368315</v>
       </c>
       <c r="H2">
-        <v>1.001095</v>
+        <v>0.873663</v>
       </c>
       <c r="I2">
-        <v>0.5426527400820786</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="J2">
-        <v>0.4669329937779271</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>0.285228984115</v>
+        <v>1.17055050541275</v>
       </c>
       <c r="R2">
-        <v>1.14091593646</v>
+        <v>4.682202021651</v>
       </c>
       <c r="S2">
-        <v>0.004162474783087621</v>
+        <v>0.02215048196759783</v>
       </c>
       <c r="T2">
-        <v>0.002655475037662174</v>
+        <v>0.01600026410707526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.5005475</v>
+        <v>0.4368315</v>
       </c>
       <c r="H3">
-        <v>1.001095</v>
+        <v>0.873663</v>
       </c>
       <c r="I3">
-        <v>0.5426527400820786</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="J3">
-        <v>0.4669329937779271</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>25.0786385722125</v>
+        <v>21.8863130980725</v>
       </c>
       <c r="R3">
-        <v>150.471831433275</v>
+        <v>131.317878588435</v>
       </c>
       <c r="S3">
-        <v>0.3659838461890498</v>
+        <v>0.4141575962543467</v>
       </c>
       <c r="T3">
-        <v>0.3502222902435382</v>
+        <v>0.4487462799938998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.5005475</v>
+        <v>0.4368315</v>
       </c>
       <c r="H4">
-        <v>1.001095</v>
+        <v>0.873663</v>
       </c>
       <c r="I4">
-        <v>0.5426527400820786</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="J4">
-        <v>0.4669329937779271</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>0.2027941500383334</v>
+        <v>0.1216166561995</v>
       </c>
       <c r="R4">
-        <v>1.21676490023</v>
+        <v>0.7296999371969999</v>
       </c>
       <c r="S4">
-        <v>0.002959466192790251</v>
+        <v>0.002301368063701514</v>
       </c>
       <c r="T4">
-        <v>0.002832013048471912</v>
+        <v>0.002493568551736977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.5005475</v>
+        <v>0.4368315</v>
       </c>
       <c r="H5">
-        <v>1.001095</v>
+        <v>0.873663</v>
       </c>
       <c r="I5">
-        <v>0.5426527400820786</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="J5">
-        <v>0.4669329937779271</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>10.96071210195875</v>
+        <v>5.708406363035249</v>
       </c>
       <c r="R5">
-        <v>43.84284840783501</v>
+        <v>22.833625452141</v>
       </c>
       <c r="S5">
-        <v>0.1599545988309934</v>
+        <v>0.1080209282926646</v>
       </c>
       <c r="T5">
-        <v>0.1020439681894954</v>
+        <v>0.07802825167878318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.5005475</v>
+        <v>0.4368315</v>
       </c>
       <c r="H6">
-        <v>1.001095</v>
+        <v>0.873663</v>
       </c>
       <c r="I6">
-        <v>0.5426527400820786</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="J6">
-        <v>0.4669329937779271</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>0.5150785607741667</v>
+        <v>0.8139037227474999</v>
       </c>
       <c r="R6">
-        <v>3.090471364645</v>
+        <v>4.883422336484999</v>
       </c>
       <c r="S6">
-        <v>0.007516772978678437</v>
+        <v>0.01540160774841768</v>
       </c>
       <c r="T6">
-        <v>0.007193053669570048</v>
+        <v>0.01668788462540513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,46 +853,46 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.5005475</v>
+        <v>0.4368315</v>
       </c>
       <c r="H7">
-        <v>1.001095</v>
+        <v>0.873663</v>
       </c>
       <c r="I7">
-        <v>0.5426527400820786</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="J7">
-        <v>0.4669329937779271</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>0.1422269014433333</v>
+        <v>0.047920997992</v>
       </c>
       <c r="R7">
-        <v>0.85336140866</v>
+        <v>0.287525987952</v>
       </c>
       <c r="S7">
-        <v>0.002075581107479146</v>
+        <v>0.0009068153804408463</v>
       </c>
       <c r="T7">
-        <v>0.001986193589189388</v>
+        <v>0.0009825487502689067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.122698</v>
+        <v>0.3391525</v>
       </c>
       <c r="H8">
-        <v>0.245396</v>
+        <v>0.6783049999999999</v>
       </c>
       <c r="I8">
-        <v>0.1330191558295484</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="J8">
-        <v>0.1144581572589297</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>0.06991749213199999</v>
+        <v>0.90880609637125</v>
       </c>
       <c r="R8">
-        <v>0.279669968528</v>
+        <v>3.635224385485</v>
       </c>
       <c r="S8">
-        <v>0.001020337392425863</v>
+        <v>0.01719745791115275</v>
       </c>
       <c r="T8">
-        <v>0.0006509301837908958</v>
+        <v>0.01242247771182903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.122698</v>
+        <v>0.3391525</v>
       </c>
       <c r="H9">
-        <v>0.245396</v>
+        <v>0.6783049999999999</v>
       </c>
       <c r="I9">
-        <v>0.1330191558295484</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="J9">
-        <v>0.1144581572589297</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
-        <v>6.147466115670001</v>
+        <v>16.9923593032875</v>
       </c>
       <c r="R9">
-        <v>36.88479669402</v>
+        <v>101.954155819725</v>
       </c>
       <c r="S9">
-        <v>0.08971273647297016</v>
+        <v>0.3215486615861088</v>
       </c>
       <c r="T9">
-        <v>0.08584914432356898</v>
+        <v>0.3484030403614005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.122698</v>
+        <v>0.3391525</v>
       </c>
       <c r="H10">
-        <v>0.245396</v>
+        <v>0.6783049999999999</v>
       </c>
       <c r="I10">
-        <v>0.1330191558295484</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="J10">
-        <v>0.1144581572589297</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>0.04971044031066667</v>
+        <v>0.09442220396583331</v>
       </c>
       <c r="R10">
-        <v>0.298262641864</v>
+        <v>0.5665332237949999</v>
       </c>
       <c r="S10">
-        <v>0.0007254468015982065</v>
+        <v>0.001786763848817056</v>
       </c>
       <c r="T10">
-        <v>0.0006942045200933111</v>
+        <v>0.001935986778066543</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.122698</v>
+        <v>0.3391525</v>
       </c>
       <c r="H11">
-        <v>0.245396</v>
+        <v>0.6783049999999999</v>
       </c>
       <c r="I11">
-        <v>0.1330191558295484</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="J11">
-        <v>0.1144581572589297</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>2.686772890657</v>
+        <v>4.431961268908749</v>
       </c>
       <c r="R11">
-        <v>10.747091562628</v>
+        <v>17.727845075635</v>
       </c>
       <c r="S11">
-        <v>0.03920928456812835</v>
+        <v>0.08386658902294808</v>
       </c>
       <c r="T11">
-        <v>0.02501379151611927</v>
+        <v>0.0605805136019003</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.122698</v>
+        <v>0.3391525</v>
       </c>
       <c r="H12">
-        <v>0.245396</v>
+        <v>0.6783049999999999</v>
       </c>
       <c r="I12">
-        <v>0.1330191558295484</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="J12">
-        <v>0.1144581572589297</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>0.1262599638393333</v>
+        <v>0.6319083727458332</v>
       </c>
       <c r="R12">
-        <v>0.757559783036</v>
+        <v>3.791450236474999</v>
       </c>
       <c r="S12">
-        <v>0.001842568409467407</v>
+        <v>0.01195768567947876</v>
       </c>
       <c r="T12">
-        <v>0.001763215876912592</v>
+        <v>0.01295634080971201</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,433 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.122698</v>
+        <v>0.3391525</v>
       </c>
       <c r="H13">
-        <v>0.245396</v>
+        <v>0.6783049999999999</v>
       </c>
       <c r="I13">
-        <v>0.1330191558295484</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="J13">
-        <v>0.1144581572589297</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>0.03486373691466667</v>
+        <v>0.03720548145333333</v>
       </c>
       <c r="R13">
-        <v>0.209182421488</v>
+        <v>0.22323288872</v>
       </c>
       <c r="S13">
-        <v>0.000508782184958423</v>
+        <v>0.000704044244325247</v>
       </c>
       <c r="T13">
-        <v>0.0004868708384446221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.299163</v>
-      </c>
-      <c r="H14">
-        <v>0.897489</v>
-      </c>
-      <c r="I14">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J14">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.569834</v>
-      </c>
-      <c r="N14">
-        <v>1.139668</v>
-      </c>
-      <c r="O14">
-        <v>0.007670604929513537</v>
-      </c>
-      <c r="P14">
-        <v>0.005687058042690201</v>
-      </c>
-      <c r="Q14">
-        <v>0.170473248942</v>
-      </c>
-      <c r="R14">
-        <v>1.022839493652</v>
-      </c>
-      <c r="S14">
-        <v>0.002487792754000054</v>
-      </c>
-      <c r="T14">
-        <v>0.002380652821237132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.299163</v>
-      </c>
-      <c r="H15">
-        <v>0.897489</v>
-      </c>
-      <c r="I15">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J15">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>50.10241500000001</v>
-      </c>
-      <c r="N15">
-        <v>150.307245</v>
-      </c>
-      <c r="O15">
-        <v>0.6744347151618421</v>
-      </c>
-      <c r="P15">
-        <v>0.7500482829664926</v>
-      </c>
-      <c r="Q15">
-        <v>14.988788778645</v>
-      </c>
-      <c r="R15">
-        <v>134.899099007805</v>
-      </c>
-      <c r="S15">
-        <v>0.2187381324998221</v>
-      </c>
-      <c r="T15">
-        <v>0.3139768483993855</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.299163</v>
-      </c>
-      <c r="H16">
-        <v>0.897489</v>
-      </c>
-      <c r="I16">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J16">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4051446666666667</v>
-      </c>
-      <c r="N16">
-        <v>1.215434</v>
-      </c>
-      <c r="O16">
-        <v>0.005453701739979455</v>
-      </c>
-      <c r="P16">
-        <v>0.00606513800954236</v>
-      </c>
-      <c r="Q16">
-        <v>0.121204293914</v>
-      </c>
-      <c r="R16">
-        <v>1.090838645226</v>
-      </c>
-      <c r="S16">
-        <v>0.001768788745590998</v>
-      </c>
-      <c r="T16">
-        <v>0.002538920440977138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.299163</v>
-      </c>
-      <c r="H17">
-        <v>0.897489</v>
-      </c>
-      <c r="I17">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J17">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>21.8974465</v>
-      </c>
-      <c r="N17">
-        <v>43.794893</v>
-      </c>
-      <c r="O17">
-        <v>0.2947641963565862</v>
-      </c>
-      <c r="P17">
-        <v>0.2185409246064703</v>
-      </c>
-      <c r="Q17">
-        <v>6.5509057872795</v>
-      </c>
-      <c r="R17">
-        <v>39.305434723677</v>
-      </c>
-      <c r="S17">
-        <v>0.09560031295746453</v>
-      </c>
-      <c r="T17">
-        <v>0.09148316490085562</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.299163</v>
-      </c>
-      <c r="H18">
-        <v>0.897489</v>
-      </c>
-      <c r="I18">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J18">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.029030333333333</v>
-      </c>
-      <c r="N18">
-        <v>3.087091</v>
-      </c>
-      <c r="O18">
-        <v>0.01385190274270336</v>
-      </c>
-      <c r="P18">
-        <v>0.01540489484662773</v>
-      </c>
-      <c r="Q18">
-        <v>0.307847801611</v>
-      </c>
-      <c r="R18">
-        <v>2.770630214499</v>
-      </c>
-      <c r="S18">
-        <v>0.004492561354557514</v>
-      </c>
-      <c r="T18">
-        <v>0.006448625300145094</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.299163</v>
-      </c>
-      <c r="H19">
-        <v>0.897489</v>
-      </c>
-      <c r="I19">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J19">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2841426666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.852428</v>
-      </c>
-      <c r="O19">
-        <v>0.003824879069375389</v>
-      </c>
-      <c r="P19">
-        <v>0.00425370152817691</v>
-      </c>
-      <c r="Q19">
-        <v>0.08500497258799999</v>
-      </c>
-      <c r="R19">
-        <v>0.7650447532919999</v>
-      </c>
-      <c r="S19">
-        <v>0.00124051577693782</v>
-      </c>
-      <c r="T19">
-        <v>0.0017806371005429</v>
+        <v>0.0007628430299224654</v>
       </c>
     </row>
   </sheetData>
